--- a/image/servicerequest.xlsx
+++ b/image/servicerequest.xlsx
@@ -1375,46 +1375,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.9375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.42578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="42.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.9375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.9375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.81640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.42578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="27.73828125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="84.56640625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="157.5625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="61.04296875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="28.03125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="82.1484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="158.2265625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="59.3671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/servicerequest.xlsx
+++ b/image/servicerequest.xlsx
@@ -502,7 +502,7 @@
     <t>ServiceRequest.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | completed | entered-in-error | cancelled</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>The status of the order.</t>
@@ -538,7 +538,7 @@
     <t>ServiceRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order +</t>
+    <t>proposal | plan | directive | order +</t>
   </si>
   <si>
     <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
@@ -1385,7 +1385,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="63.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/image/servicerequest.xlsx
+++ b/image/servicerequest.xlsx
@@ -502,7 +502,7 @@
     <t>ServiceRequest.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | completed | entered-in-error | cancelled</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>The status of the order.</t>
@@ -538,7 +538,7 @@
     <t>ServiceRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order +</t>
+    <t>proposal | plan | directive | order +</t>
   </si>
   <si>
     <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
@@ -1375,46 +1375,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.9375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.42578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="42.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.9375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.9375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.81640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.42578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="27.73828125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="84.56640625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="157.5625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="61.04296875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="28.03125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="82.1484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="158.2265625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="59.3671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/servicerequest.xlsx
+++ b/image/servicerequest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="389">
   <si>
     <t>Path</t>
   </si>
@@ -178,7 +178,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -1196,10 +1196,6 @@
   </si>
   <si>
     <t>ServiceRequest.patientInstruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Patient or consumer-oriented instructions</t>
@@ -1375,46 +1371,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="42.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.9375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.81640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.42578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.9375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="28.03125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="82.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="158.2265625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="59.3671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="27.73828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="84.56640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="157.5625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="61.04296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6110,13 +6106,13 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6188,7 +6184,7 @@
         <v>226</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
@@ -6199,7 +6195,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6222,16 +6218,16 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6281,7 +6277,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6296,13 +6292,13 @@
         <v>44</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
